--- a/xlsx/夏季_intext.xlsx
+++ b/xlsx/夏季_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
   <si>
     <t>夏季</t>
   </si>
@@ -29,7 +29,7 @@
     <t>夏 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_夏季</t>
+    <t>政策_政策_美国_夏季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A4%A9_(%E6%B6%88%E6%AD%A7%E4%B9%89)</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B0%A3</t>
   </si>
   <si>
-    <t>天氣</t>
+    <t>天气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E7%AF%80</t>
   </si>
   <si>
-    <t>季節</t>
+    <t>季节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%AD%A3</t>
@@ -113,25 +113,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A7%E7%8B%80%E9%9B%B2</t>
   </si>
   <si>
-    <t>弧狀雲</t>
+    <t>弧状云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E6%93%8A%E6%9A%B4%E6%B5%81</t>
   </si>
   <si>
-    <t>下擊暴流</t>
+    <t>下击暴流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E4%B8%8B%E6%93%8A%E6%9A%B4%E6%B5%81</t>
   </si>
   <si>
-    <t>微下擊暴流</t>
+    <t>微下击暴流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%9A%B4%E6%B5%81</t>
   </si>
   <si>
-    <t>熱暴流</t>
+    <t>热暴流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%B0%98%E6%9A%B4</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%88%E9%A2%A8</t>
   </si>
   <si>
-    <t>烈風</t>
+    <t>烈风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B4%9B%E5%8F%AF%E9%A3%8E</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%81%BD%E6%9A%B4%E9%A2%A8</t>
   </si>
   <si>
-    <t>火災暴風</t>
+    <t>火灾暴风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%AA%E7%94%B5</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%87%E7%83%88%E9%9B%B7%E9%9B%A8</t>
   </si>
   <si>
-    <t>劇烈雷雨</t>
+    <t>剧烈雷雨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%89%93%E9%9B%AA</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E6%8D%B2%E9%A2%A8</t>
   </si>
   <si>
-    <t>龍捲風</t>
+    <t>龙捲风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E6%97%8B</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E6%B0%A3%E6%97%8B</t>
   </si>
   <si>
-    <t>熱帶氣旋</t>
+    <t>热带气旋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E6%B0%A3%E6%97%8B</t>
   </si>
   <si>
-    <t>溫帶氣旋</t>
+    <t>温带气旋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/European_windstorm</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B1%E9%A2%A8</t>
   </si>
   <si>
-    <t>颱風</t>
+    <t>台风</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Derecho</t>
@@ -281,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%B5%E6%8D%B2%E9%A2%A8</t>
   </si>
   <si>
-    <t>塵捲風</t>
+    <t>尘捲风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E9%BE%8D%E6%8D%B2</t>
   </si>
   <si>
-    <t>火龍捲</t>
+    <t>火龙捲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%BE%8D%E6%8D%B2%E9%A2%A8</t>
   </si>
   <si>
-    <t>海龍捲風</t>
+    <t>海龙捲风</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Winter_storm</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E5%A4%BE%E9%9B%AA</t>
   </si>
   <si>
-    <t>雨夾雪</t>
+    <t>雨夹雪</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Snow_grains</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E6%B2%B3%E6%B5%81</t>
   </si>
   <si>
-    <t>大氣河流</t>
+    <t>大气河流</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Atmospheric_convection</t>
@@ -437,19 +437,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%A3%E6%B1%A1%E6%9F%93</t>
   </si>
   <si>
-    <t>空氣污染</t>
+    <t>空气污染</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%A7</t>
   </si>
   <si>
-    <t>霧</t>
+    <t>雾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E6%BD%AE</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E6%B0%A3%E6%B5%81</t>
   </si>
   <si>
-    <t>高速氣流</t>
+    <t>高速气流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E8%B1%A1%E5%AD%A6</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%A4%A9%E6%B0%A3</t>
   </si>
   <si>
-    <t>Template talk-天氣</t>
+    <t>Template talk-天气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E9%AB%98%E5%BA%A6</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%99%9D</t>
   </si>
   <si>
-    <t>白晝</t>
+    <t>白昼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%BD%9C%E7%89%A9</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%94%E5%A5%B3%E4%B8%80</t>
   </si>
   <si>
-    <t>織女一</t>
+    <t>织女一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E9%BC%93%E4%BA%8C</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9E%A2%E7%81%AB%E8%9F%B2</t>
   </si>
   <si>
-    <t>螢火蟲</t>
+    <t>萤火虫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9A%8A</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E5%AD%A3%E5%80%99%E9%A2%A8</t>
   </si>
   <si>
-    <t>西南季候風</t>
+    <t>西南季候风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -809,9 +809,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E9%A3%8E</t>
   </si>
   <si>
-    <t>台风</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8D%97</t>
   </si>
   <si>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B1%E9%A2%A8%E5%AD%A3</t>
   </si>
   <si>
-    <t>颱風季</t>
+    <t>台风季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%9B%9E%E5%BD%92%E7%BA%BF</t>
@@ -917,19 +914,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE</t>
@@ -953,21 +947,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%89%E5%9C%93</t>
   </si>
   <si>
-    <t>粉圓</t>
+    <t>粉圆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%8E%89%E5%86%B0</t>
   </si>
   <si>
-    <t>愛玉冰</t>
+    <t>爱玉冰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E8%8A%82</t>
   </si>
   <si>
-    <t>季节</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%82%E5%85%B0%E7%9B%86%E8%8A%82</t>
   </si>
   <si>
@@ -989,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -5218,7 +5209,7 @@
         <v>263</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -5244,10 +5235,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5273,10 +5264,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5302,10 +5293,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5331,10 +5322,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5360,10 +5351,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5389,10 +5380,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>13</v>
@@ -5418,10 +5409,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5447,10 +5438,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5476,10 +5467,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5505,10 +5496,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5534,10 +5525,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5563,10 +5554,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5592,10 +5583,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5621,10 +5612,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5650,10 +5641,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5679,10 +5670,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5708,10 +5699,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5737,10 +5728,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>176</v>
       </c>
       <c r="G151" t="n">
         <v>11</v>
@@ -5766,10 +5757,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5795,10 +5786,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5824,10 +5815,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>5</v>
@@ -5853,10 +5844,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5882,10 +5873,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5911,10 +5902,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5940,10 +5931,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5969,10 +5960,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="G159" t="n">
         <v>13</v>
@@ -5998,10 +5989,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6027,10 +6018,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6056,10 +6047,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6201,10 +6192,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -6230,10 +6221,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6259,10 +6250,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6288,10 +6279,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6317,10 +6308,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6346,10 +6337,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
